--- a/simulation_metrics.xlsx
+++ b/simulation_metrics.xlsx
@@ -1,26 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28318"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Test Data\Bizagi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9819BCFB-CE32-4F9C-A9CD-BCC0A7554E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:9_{9819BCFB-CE32-4F9C-A9CD-BCC0A7554E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB0C58BE-D606-4938-90B4-17119AD43523}"/>
   <bookViews>
     <workbookView xWindow="4380" yWindow="4185" windowWidth="25815" windowHeight="12030" xr2:uid="{1DFEDFA4-C2BE-44EB-BC93-19389BFEE2AD}"/>
   </bookViews>
   <sheets>
     <sheet name="simulation_metrics" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>Name</t>
   </si>
@@ -64,19 +80,25 @@
     <t>Tech</t>
   </si>
   <si>
-    <t>Complete /Accurate?</t>
+    <t>Complete  /Accurate?</t>
+  </si>
+  <si>
+    <t>Gateway</t>
   </si>
   <si>
     <t>Note Accuracy in Asset Change Tracker (5.5.13.2)</t>
   </si>
   <si>
+    <t>Work with REO RPO to Correct (5.5.13.3)</t>
+  </si>
+  <si>
+    <t>Create Journal Entries?</t>
+  </si>
+  <si>
+    <t>Create/Post Journal Entries (5.5.13.4)</t>
+  </si>
+  <si>
     <t>Certifier</t>
-  </si>
-  <si>
-    <t>Work with REO RPO to Correct (5.5.13.3)</t>
-  </si>
-  <si>
-    <t>Create/Post Journal Entries (5.5.13.4)</t>
   </si>
   <si>
     <t>Monthly</t>
@@ -89,7 +111,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -943,15 +965,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7034F58D-8073-4819-AF6A-590AC10D2327}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="49.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -986,7 +1011,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -997,53 +1022,56 @@
         <v>13</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F2">
         <v>5</v>
       </c>
       <c r="G2">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>14</v>
       </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
       <c r="H3">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="I3">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>5</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1054,53 +1082,67 @@
         <v>13</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>120</v>
       </c>
       <c r="F5">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G5">
         <v>240</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="G6">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="H6">
+        <v>0.5</v>
+      </c>
+      <c r="I6">
+        <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>19</v>
       </c>
       <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="J7">
-        <v>2</v>
-      </c>
-      <c r="K7">
-        <v>4000</v>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8">
+        <v>10</v>
+      </c>
+      <c r="K8">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>
